--- a/test2.xlsx
+++ b/test2.xlsx
@@ -352,10 +352,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -412,6 +412,36 @@
 サシスセソ</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <f aca="false">テストシート!A5</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">テストシート!B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <f aca="false">テストシート!A6</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">テストシート!B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <f aca="false">テストシート!A7</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">テストシート!B7</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
